--- a/outputs-r202/f__Erysipelotrichaceae.xlsx
+++ b/outputs-r202/f__Erysipelotrichaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:AT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -801,6 +806,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>g__Bulleidia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -942,6 +952,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>g__Bulleidia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1083,6 +1098,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>g__Bulleidia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1224,6 +1244,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>g__Bulleidia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1365,6 +1390,11 @@
           <t>g__Longicatena</t>
         </is>
       </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>g__Longicatena(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1506,6 +1536,11 @@
           <t>g__Clostridium_AQ</t>
         </is>
       </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>g__Clostridium_AQ</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1647,6 +1682,11 @@
           <t>g__Longicatena</t>
         </is>
       </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>g__Longicatena(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1788,6 +1828,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>g__Bulleidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1929,6 +1974,11 @@
           <t>g__Absicoccus</t>
         </is>
       </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>g__Absicoccus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2070,6 +2120,11 @@
           <t>g__GWE2-51-13</t>
         </is>
       </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>g__GWE2-51-13(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2211,6 +2266,11 @@
           <t>g__RUG521</t>
         </is>
       </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>g__RUG521(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2352,6 +2412,11 @@
           <t>g__Clostridium_AQ</t>
         </is>
       </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>g__Clostridium_AQ(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2493,6 +2558,11 @@
           <t>g__RUG521</t>
         </is>
       </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>g__RUG521(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2634,6 +2704,11 @@
           <t>g__UBA636</t>
         </is>
       </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>g__UBA636</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2775,6 +2850,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>g__Bulleidia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2916,6 +2996,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>g__Bulleidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3057,6 +3142,11 @@
           <t>g__Bulleidia</t>
         </is>
       </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>g__Bulleidia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3194,6 +3284,11 @@
         <v>0.9934340114173789</v>
       </c>
       <c r="AS19" t="inlineStr">
+        <is>
+          <t>g__Absicoccus</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>g__Absicoccus</t>
         </is>

--- a/outputs-r202/f__Erysipelotrichaceae.xlsx
+++ b/outputs-r202/f__Erysipelotrichaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT19"/>
+  <dimension ref="A1:AT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,137 +815,137 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG052.fasta</t>
+          <t>RUG050.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9773283750333094</v>
+        <v>0.9887555660250008</v>
       </c>
       <c r="I3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>1.015650321715631e-12</v>
+        <v>2.573511468976094e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>6.733549722923874e-13</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01911562617882577</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>7.138058587911182e-11</v>
+        <v>0.0001942324390710181</v>
       </c>
       <c r="S3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003554468884016276</v>
+        <v>0.01104992795697594</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.137326258590822e-11</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.281477253209645e-08</v>
+        <v>2.200956071762714e-09</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.51700389687609e-06</v>
+        <v>2.713746231513664e-07</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.228381180890442e-14</v>
+        <v>2.220213266721145e-14</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.9773283750333094</v>
+        <v>0.9887555660250008</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
@@ -961,137 +961,137 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG053.fasta</t>
+          <t>RUG051.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9945904093043549</v>
+        <v>0.9942996019790508</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>2.05223351948747e-12</v>
+        <v>3.330422591469997e-12</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0009465709914746439</v>
+        <v>0.001432840086834972</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.004461796784451892</v>
+        <v>0.004266759540582715</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.737227318976333e-09</v>
+        <v>4.069380024702848e-09</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.219179639863689e-06</v>
+        <v>7.94320021772827e-07</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.220216465409272e-14</v>
+        <v>2.220222745785448e-14</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.9945904093043549</v>
+        <v>0.9942996019790508</v>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
@@ -1107,137 +1107,137 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG054.fasta</t>
+          <t>RUG052.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.182357700686772e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.182357700686772e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.182357700686761e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.182357700686759e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.182357700686759e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.182357700686759e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9404556029327326</v>
+        <v>0.9773283750333094</v>
       </c>
       <c r="I5" t="n">
-        <v>2.182357700686759e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.182357700686758e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.182357700686759e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>4.769668580489822e-09</v>
+        <v>1.015650321715631e-12</v>
       </c>
       <c r="M5" t="n">
-        <v>2.182357700686759e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.182357700686766e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.182357700686759e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.100831125603067e-05</v>
+        <v>6.733549722923874e-13</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.182357700686383e-12</v>
+        <v>0.01911562617882577</v>
       </c>
       <c r="R5" t="n">
-        <v>1.892429434904958e-09</v>
+        <v>7.138058587911182e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>2.182357700686378e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>2.182357700686385e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.182357700686385e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>2.182357700686385e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.182357700686385e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>2.182357700686385e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.182357700686385e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.18235770068638e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04296121458750272</v>
+        <v>0.003554468884016276</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.182357700686376e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.182357700686375e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.449421511525714e-07</v>
+        <v>1.137326258590822e-11</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.182357700686375e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.182357700686378e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.182357700686378e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.182357700686378e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.182357700686377e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.182357700686377e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.18235770068638e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.93337211308636e-05</v>
+        <v>1.281477253209645e-08</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.182357700686378e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.182357700686378e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01655268876892735</v>
+        <v>1.51700389687609e-06</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.182357700686378e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.182357700686382e-12</v>
+        <v>2.228381180890442e-14</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.9404556029327326</v>
+        <v>0.9773283750333094</v>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
@@ -1253,2042 +1253,1020 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG068.fasta</t>
+          <t>RUG053.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>5.454961693309815e-07</v>
+        <v>0.9945904093043549</v>
       </c>
       <c r="I6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2944874748438052</v>
+        <v>2.05223351948747e-12</v>
       </c>
       <c r="M6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.525859991380766e-08</v>
+        <v>0.0009465709914746439</v>
       </c>
       <c r="S6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>0.006067852338553086</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2945176852168644</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2945150997903612</v>
+        <v>0.004461796784451892</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1104098420691079</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.484985747329602e-06</v>
+        <v>3.737227318976333e-09</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.741239021335155e-14</v>
+        <v>1.219179639863689e-06</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.285673356154389e-14</v>
+        <v>2.220216465409272e-14</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.2945176852168644</v>
+        <v>0.9945904093043549</v>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>g__Longicatena</t>
+          <t>g__Bulleidia</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>g__Longicatena(reject)</t>
+          <t>g__Bulleidia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG115.fasta</t>
+          <t>RUG054.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686772e-12</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686772e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686761e-12</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686759e-12</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686759e-12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686759e-12</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00661908362744622</v>
+        <v>0.9404556029327326</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686759e-12</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686758e-12</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9782377836443581</v>
+        <v>2.182357700686759e-12</v>
       </c>
       <c r="L7" t="n">
-        <v>4.45780878900995e-09</v>
+        <v>4.769668580489822e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686759e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686766e-12</v>
       </c>
       <c r="O7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686759e-12</v>
       </c>
       <c r="P7" t="n">
-        <v>3.484592458687011e-05</v>
+        <v>1.100831125603067e-05</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686383e-12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.034533969120631e-09</v>
+        <v>1.892429434904958e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="T7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686385e-12</v>
       </c>
       <c r="U7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686385e-12</v>
       </c>
       <c r="V7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686385e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686385e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686385e-12</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686385e-12</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.18235770068638e-12</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.852220536697618e-05</v>
+        <v>0.04296121458750272</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686376e-12</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686375e-12</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.682306094833649e-07</v>
+        <v>1.449421511525714e-07</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686375e-12</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686377e-12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686377e-12</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.18235770068638e-12</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.897456897407169e-06</v>
+        <v>1.93337211308636e-05</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0150373934176593</v>
+        <v>0.01655268876892735</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.220357123891454e-14</v>
+        <v>2.182357700686382e-12</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.9782377836443581</v>
+        <v>0.9404556029327326</v>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>g__Clostridium_AQ</t>
+          <t>g__Bulleidia</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>g__Clostridium_AQ</t>
+          <t>g__Bulleidia</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG298.fasta</t>
+          <t>RUG374.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>0.98526131093275</v>
       </c>
       <c r="C8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>3.667140383066658e-07</v>
+        <v>0.002589291775162154</v>
       </c>
       <c r="I8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2518244527710526</v>
+        <v>7.035306443907316e-10</v>
       </c>
       <c r="M8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>1.63351200759331e-07</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="R8" t="n">
-        <v>4.887358087740022e-08</v>
+        <v>7.552385358769874e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="U8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>0.005479075113546962</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2518252253960191</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2518245486448639</v>
+        <v>0.001001869197977815</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2390414149795359</v>
+        <v>3.083122583212899e-07</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>0.0110519952705615</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AL8" t="n">
-        <v>4.867506577935832e-06</v>
+        <v>5.148715778350746e-07</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>9.379034573455627e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.306641925510607e-14</v>
+        <v>2.220301912912365e-14</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2518252253960191</v>
+        <v>0.98526131093275</v>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>g__Longicatena</t>
+          <t>g__Absicoccus</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>g__Longicatena(reject)</t>
+          <t>g__Absicoccus</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG306.fasta</t>
+          <t>RUG503.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.598671279835984e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>1.598671279835984e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>1.598671279835981e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1703907495670401</v>
+        <v>0.4905887341325059</v>
       </c>
       <c r="I9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>1.598671279835976e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006608761192987457</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1457846172814244</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0002337183526838357</v>
+        <v>1.745414608289896e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="T9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="U9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.598671279835976e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1650882421209575</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1467286076668091</v>
+        <v>2.581840686908838e-06</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.09346876004950617</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.59867127983598e-09</v>
+        <v>0.509408142566636</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.598671279835988e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.598671279835987e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.598671279835987e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.1138206281583635</v>
+        <v>1.386015233954822e-10</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.598671279835983e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.598671279835983e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.1578758628540753</v>
+        <v>5.411462288115624e-07</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.598671279835988e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.598671279835988e-09</v>
+        <v>2.220442171772118e-14</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.1703907495670401</v>
+        <v>0.509408142566636</v>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>g__Bulleidia</t>
+          <t>g__RUG521</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>g__Bulleidia(reject)</t>
+          <t>g__RUG521(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG374.fasta</t>
+          <t>hRUG876.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.98526131093275</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002589291775162154</v>
+        <v>0.9711538043643262</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="L10" t="n">
-        <v>7.035306443907316e-10</v>
+        <v>3.716156652023988e-13</v>
       </c>
       <c r="M10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63351200759331e-07</v>
+        <v>4.00184115083817e-11</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="R10" t="n">
-        <v>7.552385358769874e-07</v>
+        <v>1.152957060787112e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="T10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="U10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="V10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001001869197977815</v>
+        <v>0.0002974142043356172</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.083122583212899e-07</v>
+        <v>1.956185113004954e-13</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0110519952705615</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>0.0285430200134707</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AL10" t="n">
-        <v>5.148715778350746e-07</v>
+        <v>3.02726918274342e-09</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.379034573455627e-05</v>
+        <v>5.758348127009518e-06</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.220301912912365e-14</v>
+        <v>2.220401330610736e-14</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.98526131093275</v>
+        <v>0.9711538043643262</v>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>g__Absicoccus</t>
+          <t>g__Bulleidia</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>g__Absicoccus</t>
+          <t>g__Bulleidia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG416.fasta</t>
+          <t>hRUG902.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889044e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889044e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889042e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>3.610495966843025e-11</v>
+        <v>2.605960864889039e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>3.610495966843025e-11</v>
+        <v>2.605960864889039e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>3.610495966843027e-11</v>
+        <v>2.605960864889039e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1328223993625131</v>
+        <v>0.9764711135053863</v>
       </c>
       <c r="I11" t="n">
-        <v>3.610495966843027e-11</v>
+        <v>2.605960864889039e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>3.610495966843024e-11</v>
+        <v>2.605960864889037e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>3.610495966843032e-11</v>
+        <v>2.605960864889039e-14</v>
       </c>
       <c r="L11" t="n">
-        <v>3.610495966843276e-11</v>
+        <v>1.23611247889492e-12</v>
       </c>
       <c r="M11" t="n">
-        <v>3.610495966843032e-11</v>
+        <v>2.605960864889039e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>3.610495966843032e-11</v>
+        <v>2.605960864889042e-14</v>
       </c>
       <c r="O11" t="n">
-        <v>3.610495966843032e-11</v>
+        <v>2.605960864889042e-14</v>
       </c>
       <c r="P11" t="n">
-        <v>3.610495966843032e-11</v>
+        <v>2.605960864889039e-14</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.610495966843029e-11</v>
+        <v>0.02172004196038633</v>
       </c>
       <c r="R11" t="n">
-        <v>2.085430859407379e-07</v>
+        <v>5.660614306468731e-10</v>
       </c>
       <c r="S11" t="n">
-        <v>3.610495966843025e-11</v>
+        <v>2.605960864889047e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>3.61049596684303e-11</v>
+        <v>2.605960864889049e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>3.610495966843025e-11</v>
+        <v>2.605960864889049e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2905329850023375</v>
+        <v>2.605960864889049e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>3.61049596684303e-11</v>
+        <v>2.605960864889049e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889049e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889049e-14</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889047e-14</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5726183347805991</v>
+        <v>0.00180688879021075</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889047e-14</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.610495966843025e-11</v>
+        <v>2.605960864889047e-14</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.465279806229158e-06</v>
+        <v>1.234532136957191e-11</v>
       </c>
       <c r="AE11" t="n">
-        <v>3.610495966843025e-11</v>
+        <v>2.605960864889047e-14</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889049e-14</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889049e-14</v>
       </c>
       <c r="AH11" t="n">
-        <v>3.610495966843034e-11</v>
+        <v>2.605960864889049e-14</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.610495966843024e-11</v>
+        <v>2.605960864889064e-14</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.610495966843024e-11</v>
+        <v>2.605960864889064e-14</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.610495966843024e-11</v>
+        <v>2.605960864889064e-14</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.003314226875824776</v>
+        <v>1.042006179862434e-08</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.610495966843024e-11</v>
+        <v>2.605960864889064e-14</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.610495966843024e-11</v>
+        <v>2.605960864889064e-14</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0007093788921582869</v>
+        <v>1.94474342517162e-06</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.610495966843024e-11</v>
+        <v>2.605960864889064e-14</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.610495966843024e-11</v>
+        <v>2.605960864889064e-14</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.5726183347805991</v>
+        <v>0.9764711135053863</v>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>g__Merdibacter</t>
+          <t>g__Bulleidia</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>g__Merdibacter(reject)</t>
+          <t>g__Bulleidia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG503.fasta</t>
+          <t>hRUG912.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>0.9931976171559778</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4905887341325059</v>
+        <v>0.005088346431444683</v>
       </c>
       <c r="I12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="L12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.56460439481356e-09</v>
       </c>
       <c r="M12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.599043367251671e-07</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.745414608289896e-10</v>
+        <v>3.023488322884469e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="T12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="U12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="V12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.581840686908838e-06</v>
+        <v>0.001488723687989763</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>7.735262869192645e-07</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.509408142566636</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.386015233954822e-10</v>
+        <v>6.44885531641413e-06</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.411462288115624e-07</v>
+        <v>0.0001875929900817609</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.220442171772118e-14</v>
+        <v>2.220239325097337e-14</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.509408142566636</v>
+        <v>0.9931976171559778</v>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>g__RUG521</t>
+          <t>g__Absicoccus</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
-        <is>
-          <t>g__RUG521(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RUG574.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.002506471899509231</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.9766958085132129</v>
-      </c>
-      <c r="L13" t="n">
-        <v>8.478370777407218e-09</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.84756161414922e-06</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.033255645388906e-10</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.009964829513866215</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.0003593112814059938</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>3.800425645854071e-08</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.009964829513866201</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>7.855188515207031e-06</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0.0004959999413688148</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>2.220417548500713e-14</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0.9766958085132129</v>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>g__Clostridium_AQ</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>g__Clostridium_AQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>RUG584.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.959218581634092e-11</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.959218581634092e-11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.959218581634092e-11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.959218581634087e-11</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.959218581634087e-11</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.959218581634092e-11</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.1945068565400617</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.959218581634092e-11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.959218581634087e-11</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.959218581634095e-11</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.959218581634451e-11</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.2678043519350606</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.959218581634276e-11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.959218581634281e-11</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.959218581634281e-11</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.959218581634281e-11</v>
-      </c>
-      <c r="R14" t="n">
-        <v>9.798226757285838e-10</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.959218581634283e-11</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.959218581634283e-11</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.959218581634283e-11</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.959218581634283e-11</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.959218581634283e-11</v>
-      </c>
-      <c r="X14" t="n">
-        <v>2.959218581634283e-11</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>2.959218581634283e-11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>2.959218581634283e-11</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.001671617222616313</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>2.959218581634283e-11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.258234605760401</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1.635036644082923e-10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>2.959218581634279e-11</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>2.959218581634281e-11</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2.959218581634281e-11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>2.959218581634281e-11</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>2.959218581634273e-11</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>2.959218581634265e-11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>2.959218581634265e-11</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0.001008752922251624</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>2.959218581634265e-11</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>2.959218581634273e-11</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0.2767738134701486</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>2.959218581634273e-11</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>2.959218581634257e-11</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0.2767738134701486</v>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>g__UBA636</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>g__UBA636(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>RUG809.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.320964242869467e-13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.320964242869467e-13</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.320964242869467e-13</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1857127387963743</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.504662190988666e-10</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.523034841602935e-05</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.442174905788458e-06</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>4.874229202133829e-05</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1.803973199794469e-06</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.320964242869465e-13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.08716923661769757</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>9.1478587843026e-06</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0.7270306577837755</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1.320964242869466e-13</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0.7270306577837755</v>
-      </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>g__UBA636</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>g__UBA636</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>hRUG876.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9711538043643262</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.716156652023988e-13</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.00184115083817e-11</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.152957060787112e-12</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.0002974142043356172</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1.956185113004954e-13</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.0285430200134707</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>3.02726918274342e-09</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5.758348127009518e-06</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>2.220401330610736e-14</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0.9711538043643262</v>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>g__Bulleidia</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>g__Bulleidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>hRUG895.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1.778347339210204e-11</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.778347339210204e-11</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.778347339210203e-11</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.7783473392102e-11</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.7783473392102e-11</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.778347339210197e-11</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.3283198212169473</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.778347339210197e-11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.778347339210197e-11</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.778347339210201e-11</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.069512287145333e-05</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.778347339210201e-11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.2564359310421335</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.778347339210201e-11</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.1826710136060396</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.778347339210201e-11</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4.202033392859038e-06</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.778347339210192e-11</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.778347339210193e-11</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.778347339210193e-11</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.778347339210193e-11</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.778347339210193e-11</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.778347339210193e-11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.778347339210193e-11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.778347339210191e-11</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.02133934277343801</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.778347339210191e-11</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1.778347339210192e-11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.008109292580765893</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.778347339210192e-11</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.778347339210193e-11</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.778347339210193e-11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.778347339210193e-11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1.778347339210198e-11</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.778347339210198e-11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1.778347339210198e-11</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0.05463256894789052</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1.778347339210198e-11</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1.778347339210198e-11</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0.1484571320896668</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1.778347339210201e-11</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1.778347339210201e-11</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0.3283198212169473</v>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>g__Bulleidia</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>g__Bulleidia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>hRUG902.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2.605960864889044e-14</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.605960864889044e-14</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.605960864889042e-14</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.605960864889039e-14</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.605960864889039e-14</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.605960864889039e-14</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.9764711135053863</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.605960864889039e-14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.605960864889037e-14</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.605960864889039e-14</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.23611247889492e-12</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.605960864889039e-14</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.605960864889042e-14</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.605960864889042e-14</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.605960864889039e-14</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.02172004196038633</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5.660614306468731e-10</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.605960864889047e-14</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.605960864889049e-14</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.605960864889049e-14</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.605960864889049e-14</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.605960864889049e-14</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2.605960864889049e-14</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2.605960864889049e-14</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>2.605960864889047e-14</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.00180688879021075</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2.605960864889047e-14</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>2.605960864889047e-14</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1.234532136957191e-11</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>2.605960864889047e-14</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>2.605960864889049e-14</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.605960864889049e-14</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2.605960864889049e-14</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>2.605960864889064e-14</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>2.605960864889064e-14</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>2.605960864889064e-14</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.042006179862434e-08</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>2.605960864889064e-14</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>2.605960864889064e-14</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1.94474342517162e-06</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>2.605960864889064e-14</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>2.605960864889064e-14</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0.9764711135053863</v>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>g__Bulleidia</t>
-        </is>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>g__Bulleidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>hRUG912.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9931976171559778</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.005088346431444683</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.56460439481356e-09</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.599043367251671e-07</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3.023488322884469e-05</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.001488723687989763</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7.735262869192645e-07</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>6.44885531641413e-06</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0.0001875929900817609</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>2.220239325097337e-14</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0.9931976171559778</v>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>g__Absicoccus</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
         <is>
           <t>g__Absicoccus</t>
         </is>
